--- a/storypoint/IEEE TSE2018/Deep-SE/variable.xlsx
+++ b/storypoint/IEEE TSE2018/Deep-SE/variable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="39560" yWindow="2380" windowWidth="28040" windowHeight="17440" xr2:uid="{EF4780C9-2260-034C-866F-96234C27B410}"/>
+    <workbookView xWindow="3200" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{EF4780C9-2260-034C-866F-96234C27B410}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
